--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lin\Desktop\项目\智能BI\bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157A6C2A-586E-4818-AE08-8024B28B7985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A332E2-8542-45C5-89D2-553AEB9D208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="3690" windowWidth="19200" windowHeight="11710" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,6 +64,81 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -104,6 +179,12 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -454,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="22.5"/>
@@ -499,6 +580,46 @@
         <v>55</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
